--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_107.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_107.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,199 +488,228 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_205</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_170</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1179585941261435</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E', 'E/2', 'E/3', 'E/4'], ['E', 'E/2', 'E/3', 'E/4', 'A'], ['E/2', 'E/3', 'E/4', 'A', 'C#:min']]</t>
-        </is>
+          <t>isophonics_244</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>jaah_29</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1366459627329192</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E:min/5', 'A', 'A/3', 'A/5', 'A'], ['A', 'A/3', 'A/5', 'A', 'D'], ['A', 'A/2', 'A/3', 'D', 'F#:min/5']]</t>
+          <t>[['Bb', 'F', 'F']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(59.162887, 67.655272), (63.419996, 69.714376), (64.511561, 71.846887)]</t>
+          <t>[['Db', 'Ab', 'Ab']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(7.37183, 11.500249), (7.831373, 12.39), (13.311405, 16.956938)]</t>
+          <t>[('0:00:20.130022', '0:00:25.095075')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:01:51.870000', '0:01:54.760000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1060794044665012</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A', 'F#:min', 'D'], ['E', 'A', 'E']]</t>
-        </is>
+          <t>jaah_3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2188552188552189</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A', 'F#:min', 'D'], ['E', 'A', 'E']]</t>
+          <t>[['Bb:7', 'Eb', 'Eb', 'Bb:7']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(0.440395, 6.589229), (33.814625, 37.738798)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(25.908231, 32.885827), (2.470042, 9.607823)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
+          <t>[('0:00:31.890000', '0:00:35.470000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:08.340000', '0:00:16.500000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3833333333333333</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_66</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04807692307692308</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(80.42, 84.64)]</t>
+          <t>[['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(138.8, 144.46)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>[('0:01:08.820000', '0:01:17.920000'), ('0:00:43.180000', '0:00:45.100000'), ('0:01:27.680000', '0:01:38.020000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:04:22.920000', '0:04:26.900000'), ('0:00:23.300000', '0:00:26.860000'), ('0:00:07.620000', '0:00:11.120000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:7', 'C:min', 'C:min'], ['D#/G', 'C:min/G', 'G:7', 'C:min'], ['C:min', 'C:min/G', 'G:7', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_66</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_124</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09642857142857142</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E'], ['C:maj', 'A:min/E', 'E:7', 'A:min'], ['A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['C:min/G', 'G', 'C:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(26.96, 33.5), (72.68, 78.7), (25.88, 30.84)]</t>
+          <t>[['F:min/C', 'C', 'F:min/C']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(38.12, 45.76), (35.14, 43.9), (41.18, 52.64)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:12.280000', '0:00:17.300000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:48', '0:00:52.200000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2363636363636364</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7/D', 'C:min/D#'], ['C:min', 'G:maj/B', 'C:min']]</t>
-        </is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3055555555555556</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['G', 'C', 'G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(2.0, 4.32), (16.24, 19.08)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(8.2, 12.66), (0.78, 5.26)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:00.465952', '0:00:08.500330')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:02:03.220000', '0:02:07.580000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
@@ -684,425 +718,434 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_90</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.3348837209302326</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C/5', 'G', 'C'], ['G', 'C', 'G/3']]</t>
-        </is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(27.476822, 35.056893), (18.826145, 26.43068)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(157.84, 160.98), (154.76, 159.84)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+          <t>[('0:00:06.040000', '0:01:50.760000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:04.760000', '0:01:58.780000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_174</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.4375</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(98.7, 118.8)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(32.48, 45.82)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:27', '0:00:49.860000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:00.600000', '0:00:11.320000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1261904761904762</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Db/5', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_187</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_51</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(0.243, 9.12)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(69.36, 73.2)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:16.380000', '0:01:35.260000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:14.880000', '0:01:39.500000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.172360248447205</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(33.016, 39.805)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(19.36, 21.74)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:02:04.920000', '0:02:09.320000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:02:08.540000', '0:02:13.900000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1753246753246753</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E:min7', 'A:7', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_127</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4714285714285714</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:min7', 'C:7', 'F:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(32.032, 38.856)]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(39.976, 44.64)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:01.014823', '0:00:13.657911')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_45</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_67</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.03223443223443224</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min7', 'Bb:7', 'Eb:maj6']]</t>
-        </is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_182</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4833333333333333</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:7/3', 'G:min7', 'C:7', 'F:maj6']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(59.57, 64.07)]</t>
+          <t>[['G', 'C/5', 'G', 'C/5']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(0.97, 3.68)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:02:34.020000', '0:02:40.380000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:59.182426', '0:01:06.310952')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_136</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(6.28, 12.06)]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(1.92, 5.28)]</t>
+          <t>[('0:00:02.460000', '0:00:17.160000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:14.120000', '0:01:26.540000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_72</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1507352941176471</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'G:7'], ['D', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'D:7'], ['A', 'E', 'A']]</t>
+          <t>[['F:maj', 'C:maj', 'F:7', 'A#:maj', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj'], ['A:7', 'D:min', 'C:7', 'F:maj', 'A:maj/C#', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(24.574784, 32.074829), (32.074829, 37.705668)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(3.953211, 9.30541), (0.421247, 3.953211)]</t>
+          <t>[('0:00:00.220000', '0:00:20.820000'), ('0:00:55.840000', '0:01:17.800000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
+          <t>[('0:00:01.160000', '0:00:19.200000'), ('0:00:49.080000', '0:01:08.320000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_198</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2181818181818182</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:min', 'G', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_76</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_32</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E:min', 'A', 'E:min']]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(4.766462, 8.028866)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(0.459543, 2.948732)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:55.560000', '0:01:00.520000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:39.700000', '0:00:44.020000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_207</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.5079365079365079</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A#:maj', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(5.8, 15.9)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(57.5, 59.68)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:34.300000', '0:00:49.840000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:19.500000', '0:00:49.860000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_199</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_124</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2976190476190476</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F', 'Bb', 'F']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(62.2, 64.4)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(15.124263, 20.058503)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
